--- a/data/input/absenteeism_data_6.xlsx
+++ b/data/input/absenteeism_data_6.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25228</v>
+        <v>82381</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sra. Stella Viana</t>
+          <t>Dr. Rodrigo Moura</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,109 +494,109 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45100</v>
+        <v>45087</v>
       </c>
       <c r="G2" t="n">
-        <v>6531.95</v>
+        <v>12488.51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>31023</v>
+        <v>87894</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marcela da Cruz</t>
+          <t>Sra. Agatha Ramos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45081</v>
+        <v>45091</v>
       </c>
       <c r="G3" t="n">
-        <v>6225.8</v>
+        <v>8985.16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>44280</v>
+        <v>72117</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alexandre Cardoso</t>
+          <t>Ana Laura Viana</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45091</v>
+        <v>45098</v>
       </c>
       <c r="G4" t="n">
-        <v>11925.3</v>
+        <v>5268.97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>89716</v>
+        <v>80638</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sra. Julia Martins</t>
+          <t>Kamilly Souza</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45094</v>
+        <v>45103</v>
       </c>
       <c r="G5" t="n">
-        <v>3704.8</v>
+        <v>3331.71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>23195</v>
+        <v>60342</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nathan Nunes</t>
+          <t>Isabelly Azevedo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,60 +606,60 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45094</v>
+        <v>45088</v>
       </c>
       <c r="G6" t="n">
-        <v>2832.78</v>
+        <v>5259.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>50366</v>
+        <v>91906</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>João Felipe Cavalcanti</t>
+          <t>Pedro Campos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45081</v>
+        <v>45090</v>
       </c>
       <c r="G7" t="n">
-        <v>3791.59</v>
+        <v>9385.040000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1603</v>
+        <v>42583</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Clarice Pires</t>
+          <t>Sra. Giovanna Pires</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,27 +668,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45099</v>
+        <v>45078</v>
       </c>
       <c r="G8" t="n">
-        <v>6768.48</v>
+        <v>5943.12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>58846</v>
+        <v>3717</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rafaela Martins</t>
+          <t>Maria Fernanda Rezende</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,56 +697,56 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45104</v>
+        <v>45094</v>
       </c>
       <c r="G9" t="n">
-        <v>7483.06</v>
+        <v>4404.89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>24398</v>
+        <v>64152</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Isaac Duarte</t>
+          <t>Gabriela Cardoso</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45090</v>
+        <v>45100</v>
       </c>
       <c r="G10" t="n">
-        <v>8072.1</v>
+        <v>7726.84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>31865</v>
+        <v>7042</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cecília Araújo</t>
+          <t>Sr. Murilo Freitas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -758,10 +758,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45091</v>
+        <v>45106</v>
       </c>
       <c r="G11" t="n">
-        <v>6539.18</v>
+        <v>7754.98</v>
       </c>
     </row>
   </sheetData>
